--- a/PLannification_TPI.xlsx
+++ b/PLannification_TPI.xlsx
@@ -647,7 +647,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" activeCellId="1" sqref="F32 F36"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,7 +656,7 @@
     <col min="2" max="2" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="105" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/PLannification_TPI.xlsx
+++ b/PLannification_TPI.xlsx
@@ -647,7 +647,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
